--- a/Pattern.xlsx
+++ b/Pattern.xlsx
@@ -27,124 +27,124 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>[3, 0.5, 4, 0.25, 3, 2]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3, 0.25, 4, 0.75]</t>
-  </si>
-  <si>
-    <t>[1, 0.5, 1, 0.5, 0.75, 0.5]</t>
-  </si>
-  <si>
-    <t>[2, 1, 4, 0.5, 0.5, 2]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0.5, 1.5, 3, 0.25]</t>
-  </si>
-  <si>
-    <t>[1, 0.5, 0.5, 4, 1.5, 0.25]</t>
-  </si>
-  <si>
-    <t>[2, 0.5, 0.25, 0.5, 0.5, 0.5]</t>
-  </si>
-  <si>
-    <t>[0.75, 1.5, 4, 0.75, 0.25, 0.75]</t>
-  </si>
-  <si>
-    <t>[3, 0.75, 3, 4, 1, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.25, 4, 1.5, 2, 3, 1.5]</t>
-  </si>
-  <si>
-    <t>[1.5, 0.5, 0.5, 0.75, 3, 3]</t>
-  </si>
-  <si>
-    <t>[0.75, 2, 0.75, 1.5, 0.25, 0.5]</t>
-  </si>
-  <si>
-    <t>[0.75, 0.25, 0.25, 0.25, 4, 0.25]</t>
-  </si>
-  <si>
-    <t>[1.5, 1.5, 3, 0.25, 0.5, 2]</t>
-  </si>
-  <si>
-    <t>[0.75, 0.75, 4, 1.5, 0.25, 0.5]</t>
-  </si>
-  <si>
-    <t>[1.5, 4, 1, 0.25, 4, 1.5]</t>
-  </si>
-  <si>
-    <t>[0.25, 2, 0.25, 4, 0.75, 3]</t>
-  </si>
-  <si>
-    <t>[3, 0.25, 4, 0.5, 3, 2]</t>
-  </si>
-  <si>
-    <t>[2, 1.5, 0.5, 3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[1.5, 2, 3, 1, 0.25, 4]</t>
-  </si>
-  <si>
-    <t>[64, 73, 69, 71, 74, 74]</t>
-  </si>
-  <si>
-    <t>[66, 69, 66, 67, 67, 73]</t>
-  </si>
-  <si>
-    <t>[71, 73, 71, 71, 69, 74]</t>
-  </si>
-  <si>
-    <t>[66, 69, 74, 71, 73, 71]</t>
-  </si>
-  <si>
-    <t>[73, 67, 66, 67, 64, 62]</t>
-  </si>
-  <si>
-    <t>[67, 67, 74, 73, 66, 74]</t>
-  </si>
-  <si>
-    <t>[62, 66, 74, 69, 66, 67]</t>
-  </si>
-  <si>
-    <t>[69, 66, 64, 69, 67, 73]</t>
-  </si>
-  <si>
-    <t>[69, 71, 71, 62, 73, 69]</t>
-  </si>
-  <si>
-    <t>[62, 67, 66, 67, 64, 66]</t>
-  </si>
-  <si>
-    <t>[73, 66, 62, 74, 73, 71]</t>
-  </si>
-  <si>
-    <t>[74, 71, 66, 73, 74, 73]</t>
-  </si>
-  <si>
-    <t>[69, 64, 71, 69, 66, 71]</t>
-  </si>
-  <si>
-    <t>[73, 74, 69, 64, 71, 71]</t>
-  </si>
-  <si>
-    <t>[73, 64, 73, 71, 66, 67]</t>
-  </si>
-  <si>
-    <t>[71, 73, 74, 64, 64, 74]</t>
-  </si>
-  <si>
-    <t>[71, 73, 64, 74, 64, 67]</t>
-  </si>
-  <si>
-    <t>[69, 74, 66, 64, 62, 62]</t>
-  </si>
-  <si>
-    <t>[71, 74, 66, 69, 62, 66]</t>
-  </si>
-  <si>
-    <t>[62, 64, 66, 66, 71, 73]</t>
+    <t>1.5_1.5_1_4_0.5_2</t>
+  </si>
+  <si>
+    <t>0.5_3_3_2_0.5_1.5</t>
+  </si>
+  <si>
+    <t>1.5_2_4_1_3_0.5</t>
+  </si>
+  <si>
+    <t>3_1.5_0.75_1_0.75_4</t>
+  </si>
+  <si>
+    <t>0.75_1_0.75_1_0.25_3</t>
+  </si>
+  <si>
+    <t>1_3_1_0.5_1_1</t>
+  </si>
+  <si>
+    <t>2_0.75_1_4_3_1.5</t>
+  </si>
+  <si>
+    <t>1_2_0.75_0.75_0.5_0.75</t>
+  </si>
+  <si>
+    <t>0.25_1.5_1.5_0.25_0.25_0.5</t>
+  </si>
+  <si>
+    <t>3_0.25_4_3_0.25_1</t>
+  </si>
+  <si>
+    <t>0.75_0.25_1.5_1_1.5_2</t>
+  </si>
+  <si>
+    <t>0.5_0.25_3_3_0.5_0.75</t>
+  </si>
+  <si>
+    <t>0.25_1.5_2_0.5_3_2</t>
+  </si>
+  <si>
+    <t>0.5_2_2_0.5_0.75_0.25</t>
+  </si>
+  <si>
+    <t>2_1_0.5_0.25_0.5_1.5</t>
+  </si>
+  <si>
+    <t>3_4_0.5_0.5_0.25_3</t>
+  </si>
+  <si>
+    <t>1.5_1.5_1.5_3_0.5_2</t>
+  </si>
+  <si>
+    <t>1_4_1_1.5_0.5_0.5</t>
+  </si>
+  <si>
+    <t>0.5_0.5_3_1_0.75_1</t>
+  </si>
+  <si>
+    <t>0.25_3_0.75_0.75_1.5_1</t>
+  </si>
+  <si>
+    <t>69_73_66_67_66_64</t>
+  </si>
+  <si>
+    <t>74_74_67_62_74_67</t>
+  </si>
+  <si>
+    <t>71_74_67_74_66_69</t>
+  </si>
+  <si>
+    <t>67_69_74_64_64_64</t>
+  </si>
+  <si>
+    <t>69_74_64_62_69_67</t>
+  </si>
+  <si>
+    <t>69_62_62_73_71_66</t>
+  </si>
+  <si>
+    <t>73_71_69_64_69_73</t>
+  </si>
+  <si>
+    <t>71_62_62_69_73_62</t>
+  </si>
+  <si>
+    <t>67_62_73_62_74_69</t>
+  </si>
+  <si>
+    <t>69_74_71_64_64_73</t>
+  </si>
+  <si>
+    <t>73_74_74_62_69_64</t>
+  </si>
+  <si>
+    <t>62_62_64_69_67_67</t>
+  </si>
+  <si>
+    <t>62_69_66_74_67_69</t>
+  </si>
+  <si>
+    <t>67_67_64_67_69_69</t>
+  </si>
+  <si>
+    <t>62_64_74_71_62_66</t>
+  </si>
+  <si>
+    <t>62_74_66_74_67_67</t>
+  </si>
+  <si>
+    <t>64_69_73_71_67_73</t>
+  </si>
+  <si>
+    <t>69_73_66_69_62_67</t>
+  </si>
+  <si>
+    <t>74_69_73_62_73_62</t>
+  </si>
+  <si>
+    <t>74_74_64_74_71_71</t>
   </si>
 </sst>
 </file>
@@ -548,12 +548,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
